--- a/TextBook-01/Contents.xlsx
+++ b/TextBook-01/Contents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\강의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\konkuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0862270-BF8F-4E9F-A2D2-91A6B475DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E001E1BA-1CDB-468A-AFB8-9A6875BB59F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BD51DF03-C514-4131-B2D6-638B439AD1A3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BD51DF03-C514-4131-B2D6-638B439AD1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP" sheetId="13" r:id="rId1"/>
@@ -319,10 +319,6 @@
     <t>TensorFlow</t>
   </si>
   <si>
-    <t>https://tensorflow.blog/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1장 컴퓨터는 데이터에서 배운다</t>
   </si>
   <si>
@@ -2229,6 +2225,9 @@
   <si>
     <t>16강</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rickiepark/python-machine-learning-book-3rd-edition</t>
   </si>
 </sst>
 </file>
@@ -2411,6 +2410,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2429,16 +2449,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2467,30 +2490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2813,591 +2812,585 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="36"/>
+    <col min="5" max="5" width="9" style="12"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4" s="29" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="4" t="s">
+      <c r="B6" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>674</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="4" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="4" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="4" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="14" t="s">
-        <v>625</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21" t="s">
+        <v>624</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="4" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="4" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>677</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="4" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="4" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="4" t="s">
+      <c r="E32" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="4" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="2" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="2" t="s">
+      <c r="B43" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="2" t="s">
+      <c r="B44" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
-        <v>683</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
     <mergeCell ref="F32:G36"/>
     <mergeCell ref="F37:G39"/>
     <mergeCell ref="F40:G44"/>
@@ -3408,6 +3401,12 @@
     <mergeCell ref="G17:G21"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G25:G31"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B33:C40"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="C7:C9"/>
@@ -3426,142 +3425,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8213E26-218C-42CF-A2DE-5A6FBD410D78}">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="30" t="s">
-        <v>643</v>
+      <c r="A1" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="10" t="s">
+        <v>642</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>646</v>
+      <c r="A2" s="24" t="s">
+        <v>645</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>632</v>
+      <c r="C2" s="23" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>631</v>
+      <c r="C4" s="23" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>629</v>
+      <c r="C9" s="23" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="23"/>
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -3570,1290 +3569,1276 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="23"/>
       <c r="F17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>630</v>
+      <c r="C20" s="23" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>644</v>
+      <c r="A34" s="24" t="s">
+        <v>643</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>639</v>
+      <c r="C34" s="23" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="31"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="31"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>645</v>
+      <c r="A48" s="24" t="s">
+        <v>644</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>638</v>
+      <c r="C48" s="25" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>656</v>
+      <c r="A55" s="24" t="s">
+        <v>655</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>640</v>
+      <c r="C55" s="23" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="31"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="31"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="31"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="23"/>
       <c r="I63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="31"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="31"/>
+      <c r="C65" s="23"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="31"/>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="31"/>
+      <c r="C67" s="23"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="31"/>
+      <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="31"/>
+      <c r="C69" s="23"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="31"/>
+      <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="23"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="31"/>
+      <c r="C72" s="23"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="31"/>
+      <c r="C74" s="23"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="31"/>
+      <c r="C75" s="23"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="23"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="31"/>
+      <c r="C77" s="23"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="31"/>
+      <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="31"/>
+      <c r="C80" s="23"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="23"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="31"/>
+      <c r="C83" s="23"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="31"/>
+      <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C85" s="31"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C86" s="31"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C87" s="31"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="23"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C88" s="31"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C89" s="31"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="23"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="31"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C91" s="31"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
+      <c r="C92" s="23" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="23"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C98" s="23"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C102" s="23"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C103" s="23"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C105" s="23"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C106" s="23"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C111" s="23"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C115" s="23"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C117" s="25"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C118" s="25"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="25"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C120" s="25"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C121" s="25"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C122" s="25"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C123" s="25"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
-      <c r="B93" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C93" s="31"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C94" s="31"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C95" s="31"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
-      <c r="B96" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C96" s="31"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
-      <c r="B97" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C97" s="31"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="19"/>
-      <c r="B98" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C98" s="31"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C99" s="31"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C100" s="31"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
-      <c r="B101" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C101" s="31"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="19"/>
-      <c r="B102" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C102" s="31"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="19"/>
-      <c r="B103" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C103" s="31"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
-      <c r="B104" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C104" s="31"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="19"/>
-      <c r="B105" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C105" s="31"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
-      <c r="B106" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C106" s="31"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="19"/>
-      <c r="B107" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C107" s="31"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
-      <c r="B108" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C108" s="31"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="19"/>
-      <c r="B109" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C109" s="31"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C110" s="31"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C111" s="31"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="19"/>
-      <c r="B112" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C112" s="31"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
-      <c r="B113" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C113" s="31"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="19"/>
-      <c r="B114" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C114" s="31"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="19"/>
-      <c r="B115" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C115" s="31"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C116" s="32" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="19"/>
-      <c r="B117" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C117" s="32"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C118" s="32"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C119" s="32"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="19"/>
-      <c r="B120" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C120" s="32"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="19"/>
-      <c r="B121" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C121" s="32"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="19"/>
-      <c r="B122" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C122" s="32"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="19"/>
-      <c r="B123" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C123" s="32"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C124" s="32" t="s">
+      <c r="C125" s="25"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="25"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="24"/>
+      <c r="B127" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C127" s="25"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" s="25"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="24"/>
+      <c r="B129" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C129" s="25"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="24"/>
+      <c r="B130" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C130" s="25"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="24"/>
+      <c r="B131" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C131" s="25"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C132" s="25"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="24"/>
+      <c r="B133" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" s="25"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="24"/>
+      <c r="B134" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C134" s="25"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="24"/>
+      <c r="B135" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C135" s="25"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="24"/>
+      <c r="B136" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="25"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="24"/>
+      <c r="B137" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C137" s="25"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C138" s="26" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
-      <c r="B125" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C125" s="32"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
-      <c r="B126" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C126" s="32"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C127" s="32"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C128" s="32"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C129" s="32"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
-      <c r="B130" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C130" s="32"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
-      <c r="B131" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C131" s="32"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
-      <c r="B132" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C132" s="32"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C133" s="32"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C134" s="32"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C135" s="32"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-      <c r="B136" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C136" s="32"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C137" s="32"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="B138" s="7" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="24"/>
+      <c r="B139" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C138" s="33" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="26"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C139" s="33"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="18"/>
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="26"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C140" s="33"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
-      <c r="B141" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C141" s="33"/>
+      <c r="C141" s="26"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="18"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C142" s="33"/>
+      <c r="C142" s="26"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="18"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C143" s="26"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C143" s="33"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="18"/>
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="26"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="24"/>
+      <c r="B145" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C144" s="33"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="18"/>
-      <c r="B145" s="7" t="s">
+      <c r="C145" s="26"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="C145" s="33"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
-      <c r="B146" s="7" t="s">
+      <c r="C146" s="26"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C146" s="33"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
-      <c r="B147" s="7" t="s">
+      <c r="C147" s="26"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="24"/>
+      <c r="B148" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C147" s="33"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="18"/>
-      <c r="B148" s="7" t="s">
+      <c r="C148" s="26"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="24"/>
+      <c r="B149" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C148" s="33"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="18"/>
-      <c r="B149" s="7" t="s">
+      <c r="C149" s="26"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C149" s="33"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="18"/>
-      <c r="B150" s="7" t="s">
+      <c r="C150" s="26"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="24"/>
+      <c r="B151" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C150" s="33"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="18"/>
-      <c r="B151" s="7" t="s">
+      <c r="C151" s="26"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C151" s="33"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="18"/>
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="26"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C152" s="33"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="18"/>
-      <c r="B153" s="7" t="s">
+      <c r="C153" s="26"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C153" s="33"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="18"/>
-      <c r="B154" s="7" t="s">
+      <c r="C154" s="26"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="24"/>
+      <c r="B155" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="C154" s="33"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="26"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C155" s="33"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="26"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="24"/>
+      <c r="B157" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C156" s="33"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="18"/>
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="26"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="24"/>
+      <c r="B158" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C157" s="33"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="18"/>
-      <c r="B158" s="7" t="s">
+      <c r="C158" s="26"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="24"/>
+      <c r="B159" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C158" s="33"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="18"/>
-      <c r="B159" s="7" t="s">
+      <c r="C159" s="26"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="24"/>
+      <c r="B160" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="33"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="18"/>
-      <c r="B160" s="7" t="s">
+      <c r="C160" s="26"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="24"/>
+      <c r="B161" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C160" s="33"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="18"/>
-      <c r="B161" s="7" t="s">
+      <c r="C161" s="26"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="24"/>
+      <c r="B162" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C161" s="33"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="18"/>
-      <c r="B162" s="7" t="s">
+      <c r="C162" s="26"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="24"/>
+      <c r="B163" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C162" s="33"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="18"/>
-      <c r="B163" s="7" t="s">
+      <c r="C163" s="26"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="24"/>
+      <c r="B164" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C163" s="33"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="18"/>
-      <c r="B164" s="7" t="s">
+      <c r="C164" s="26"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="24"/>
+      <c r="B165" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C164" s="33"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="18"/>
-      <c r="B165" s="7" t="s">
+      <c r="C165" s="26"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="24"/>
+      <c r="B167" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C165" s="33"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="18" t="s">
-        <v>654</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
-      <c r="B167" s="7" t="s">
+      <c r="C167" s="26"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="24"/>
+      <c r="B168" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C167" s="33"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="18"/>
-      <c r="B168" s="7" t="s">
+      <c r="C168" s="26"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="24"/>
+      <c r="B169" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C168" s="33"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="18"/>
-      <c r="B169" s="7" t="s">
+      <c r="C169" s="26"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="24"/>
+      <c r="B170" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C169" s="33"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="18"/>
-      <c r="B170" s="7" t="s">
+      <c r="C170" s="26"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="24"/>
+      <c r="B171" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C170" s="33"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="18"/>
-      <c r="B171" s="7" t="s">
+      <c r="C171" s="26"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="24"/>
+      <c r="B172" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="C171" s="33"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="18"/>
-      <c r="B172" s="7" t="s">
+      <c r="C172" s="26"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="24"/>
+      <c r="B173" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C172" s="33"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="18"/>
-      <c r="B173" s="7" t="s">
+      <c r="C173" s="26"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="24"/>
+      <c r="B174" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C173" s="33"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="18"/>
-      <c r="B174" s="7" t="s">
+      <c r="C174" s="26"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="24"/>
+      <c r="B175" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C174" s="33"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="18"/>
-      <c r="B175" s="7" t="s">
+      <c r="C175" s="26"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="24"/>
+      <c r="B176" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C175" s="33"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="18"/>
-      <c r="B176" s="7" t="s">
+      <c r="C176" s="26"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="24"/>
+      <c r="B177" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C176" s="33"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="18"/>
-      <c r="B177" s="7" t="s">
+      <c r="C177" s="26"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C177" s="33"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="13"/>
+      <c r="B179" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C178" s="31" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="23"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C179" s="31"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="19"/>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="23"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="13"/>
+      <c r="B181" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C180" s="31"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="23"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C181" s="31"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="23"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="13"/>
+      <c r="B183" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C182" s="31"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="19"/>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="23"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+      <c r="B184" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C183" s="31"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="19"/>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="23"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="13"/>
+      <c r="B185" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C184" s="31"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="23"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+      <c r="B186" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C185" s="31"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="19"/>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="23"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="13"/>
+      <c r="B187" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C186" s="31"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="19"/>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="23"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+      <c r="B188" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C187" s="31"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="19"/>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="23"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="13"/>
+      <c r="B189" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C188" s="31"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="19"/>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="23"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+      <c r="B190" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C189" s="31"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="19"/>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="23"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="13"/>
+      <c r="B191" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C190" s="31"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="19"/>
-      <c r="B191" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C191" s="31"/>
+      <c r="C191" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C55:C91"/>
-    <mergeCell ref="A55:A91"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="C92:C115"/>
-    <mergeCell ref="A92:A115"/>
-    <mergeCell ref="C124:C137"/>
-    <mergeCell ref="A124:A137"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="C178:C191"/>
-    <mergeCell ref="A178:A191"/>
-    <mergeCell ref="C138:C165"/>
-    <mergeCell ref="A138:A165"/>
-    <mergeCell ref="C166:C177"/>
-    <mergeCell ref="A166:A177"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C20:C33"/>
@@ -4864,6 +4849,20 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="C34:C47"/>
+    <mergeCell ref="C124:C137"/>
+    <mergeCell ref="A124:A137"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="C178:C191"/>
+    <mergeCell ref="A178:A191"/>
+    <mergeCell ref="C138:C165"/>
+    <mergeCell ref="A138:A165"/>
+    <mergeCell ref="C166:C177"/>
+    <mergeCell ref="A166:A177"/>
+    <mergeCell ref="C55:C91"/>
+    <mergeCell ref="A55:A91"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="C92:C115"/>
+    <mergeCell ref="A92:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4879,8 +4878,8 @@
   <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4891,2118 +4890,2113 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>657</v>
+        <v>95</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>642</v>
+        <v>104</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>640</v>
+        <v>113</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="27"/>
+        <v>115</v>
+      </c>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="27"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="27"/>
+        <v>122</v>
+      </c>
+      <c r="B29" s="35"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="B31" s="35"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="27"/>
+        <v>126</v>
+      </c>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="B34" s="35"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="27"/>
+        <v>128</v>
+      </c>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="B36" s="35"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="B37" s="35"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="27"/>
+        <v>131</v>
+      </c>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="B39" s="35"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="27"/>
+        <v>133</v>
+      </c>
+      <c r="B40" s="35"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="B42" s="35"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="27"/>
+        <v>136</v>
+      </c>
+      <c r="B43" s="35"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="27"/>
+        <v>137</v>
+      </c>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="B46" s="35"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="27"/>
+        <v>140</v>
+      </c>
+      <c r="B47" s="35"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="27"/>
+        <v>141</v>
+      </c>
+      <c r="B48" s="35"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="27"/>
+        <v>142</v>
+      </c>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="27"/>
+        <v>143</v>
+      </c>
+      <c r="B50" s="35"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="27"/>
+        <v>144</v>
+      </c>
+      <c r="B51" s="35"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="27"/>
+        <v>145</v>
+      </c>
+      <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="27"/>
+        <v>146</v>
+      </c>
+      <c r="B53" s="35"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="27"/>
+        <v>147</v>
+      </c>
+      <c r="B54" s="35"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="28"/>
+        <v>148</v>
+      </c>
+      <c r="B55" s="36"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>639</v>
+        <v>149</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="20"/>
+        <v>150</v>
+      </c>
+      <c r="B57" s="28"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>151</v>
+      </c>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="B59" s="28"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="20"/>
+        <v>153</v>
+      </c>
+      <c r="B60" s="28"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="B61" s="28"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="B62" s="28"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>157</v>
+      </c>
+      <c r="B64" s="28"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="B65" s="28"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="B66" s="28"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="B67" s="28"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="20"/>
+        <v>161</v>
+      </c>
+      <c r="B68" s="28"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="B69" s="28"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="B70" s="28"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>164</v>
+      </c>
+      <c r="B71" s="28"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>165</v>
+      </c>
+      <c r="B72" s="28"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>166</v>
+      </c>
+      <c r="B73" s="28"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="B74" s="28"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>637</v>
+        <v>168</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="21"/>
+        <v>169</v>
+      </c>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="21"/>
+        <v>175</v>
+      </c>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="21"/>
+        <v>183</v>
+      </c>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B91" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="21"/>
+        <v>187</v>
+      </c>
+      <c r="B94" s="29"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>669</v>
+        <v>188</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="B96" s="29"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="B97" s="29"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="B98" s="29"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="21"/>
+        <v>192</v>
+      </c>
+      <c r="B99" s="29"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" s="21"/>
+        <v>193</v>
+      </c>
+      <c r="B100" s="29"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B101" s="21"/>
+        <v>194</v>
+      </c>
+      <c r="B101" s="29"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="21"/>
+        <v>195</v>
+      </c>
+      <c r="B102" s="29"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B103" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="B103" s="29"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B104" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="B104" s="29"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="B105" s="29"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="21"/>
+        <v>199</v>
+      </c>
+      <c r="B106" s="29"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B107" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="B107" s="29"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" s="21"/>
+        <v>201</v>
+      </c>
+      <c r="B108" s="29"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B109" s="21"/>
+        <v>202</v>
+      </c>
+      <c r="B109" s="29"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B110" s="21"/>
+        <v>203</v>
+      </c>
+      <c r="B110" s="29"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="B111" s="29"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B112" s="21"/>
+        <v>205</v>
+      </c>
+      <c r="B112" s="29"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B113" s="21"/>
+        <v>206</v>
+      </c>
+      <c r="B113" s="29"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B114" s="21"/>
+        <v>207</v>
+      </c>
+      <c r="B114" s="29"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>668</v>
+        <v>208</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B116" s="35"/>
+        <v>209</v>
+      </c>
+      <c r="B116" s="27"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B117" s="35"/>
+        <v>210</v>
+      </c>
+      <c r="B117" s="27"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B118" s="35"/>
+        <v>211</v>
+      </c>
+      <c r="B118" s="27"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B119" s="35"/>
+        <v>212</v>
+      </c>
+      <c r="B119" s="27"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="35"/>
+        <v>213</v>
+      </c>
+      <c r="B120" s="27"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B121" s="35"/>
+        <v>214</v>
+      </c>
+      <c r="B121" s="27"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B122" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="B122" s="27"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B123" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="B123" s="27"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="B124" s="27"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="35"/>
+        <v>218</v>
+      </c>
+      <c r="B125" s="27"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B126" s="35"/>
+        <v>219</v>
+      </c>
+      <c r="B126" s="27"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="35"/>
+        <v>220</v>
+      </c>
+      <c r="B127" s="27"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>667</v>
+        <v>221</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="22"/>
+        <v>222</v>
+      </c>
+      <c r="B129" s="30"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B130" s="22"/>
+        <v>223</v>
+      </c>
+      <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B131" s="22"/>
+        <v>224</v>
+      </c>
+      <c r="B131" s="30"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B132" s="22"/>
+        <v>225</v>
+      </c>
+      <c r="B132" s="30"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B133" s="22"/>
+        <v>226</v>
+      </c>
+      <c r="B133" s="30"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" s="22"/>
+        <v>227</v>
+      </c>
+      <c r="B134" s="30"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B135" s="22"/>
+        <v>228</v>
+      </c>
+      <c r="B135" s="30"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B136" s="22"/>
+        <v>229</v>
+      </c>
+      <c r="B136" s="30"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B137" s="22"/>
+        <v>230</v>
+      </c>
+      <c r="B137" s="30"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B138" s="22"/>
+        <v>231</v>
+      </c>
+      <c r="B138" s="30"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B139" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="B139" s="30"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B140" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="B140" s="30"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B141" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="B141" s="30"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B142" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="B142" s="30"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>665</v>
+        <v>236</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B144" s="22"/>
+        <v>237</v>
+      </c>
+      <c r="B144" s="30"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B145" s="22"/>
+        <v>238</v>
+      </c>
+      <c r="B145" s="30"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B146" s="22"/>
+        <v>239</v>
+      </c>
+      <c r="B146" s="30"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B147" s="22"/>
+        <v>240</v>
+      </c>
+      <c r="B147" s="30"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B148" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="B148" s="30"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B149" s="22"/>
+        <v>242</v>
+      </c>
+      <c r="B149" s="30"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B150" s="22"/>
+        <v>243</v>
+      </c>
+      <c r="B150" s="30"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B151" s="22"/>
+        <v>244</v>
+      </c>
+      <c r="B151" s="30"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B152" s="22"/>
+        <v>245</v>
+      </c>
+      <c r="B152" s="30"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B153" s="22"/>
+        <v>246</v>
+      </c>
+      <c r="B153" s="30"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B154" s="22"/>
+        <v>247</v>
+      </c>
+      <c r="B154" s="30"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B155" s="22"/>
+        <v>248</v>
+      </c>
+      <c r="B155" s="30"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B156" s="22"/>
+        <v>249</v>
+      </c>
+      <c r="B156" s="30"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B157" s="22"/>
+        <v>250</v>
+      </c>
+      <c r="B157" s="30"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B158" s="22"/>
+        <v>251</v>
+      </c>
+      <c r="B158" s="30"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>641</v>
+        <v>252</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B160" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="B160" s="28"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B161" s="20"/>
+        <v>254</v>
+      </c>
+      <c r="B161" s="28"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B162" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="B162" s="28"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B163" s="20"/>
+        <v>256</v>
+      </c>
+      <c r="B163" s="28"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B164" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="B164" s="28"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B165" s="20"/>
+        <v>258</v>
+      </c>
+      <c r="B165" s="28"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B166" s="20"/>
+        <v>259</v>
+      </c>
+      <c r="B166" s="28"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B167" s="20"/>
+        <v>260</v>
+      </c>
+      <c r="B167" s="28"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B168" s="20"/>
+        <v>261</v>
+      </c>
+      <c r="B168" s="28"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B169" s="20"/>
+        <v>262</v>
+      </c>
+      <c r="B169" s="28"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B170" s="20"/>
+        <v>263</v>
+      </c>
+      <c r="B170" s="28"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B171" s="20"/>
+        <v>264</v>
+      </c>
+      <c r="B171" s="28"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B172" s="20"/>
+        <v>265</v>
+      </c>
+      <c r="B172" s="28"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B173" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="B173" s="28"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B174" s="20"/>
+        <v>267</v>
+      </c>
+      <c r="B174" s="28"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B175" s="20"/>
+        <v>268</v>
+      </c>
+      <c r="B175" s="28"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B176" s="20"/>
+        <v>269</v>
+      </c>
+      <c r="B176" s="28"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B177" s="20"/>
+        <v>270</v>
+      </c>
+      <c r="B177" s="28"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B178" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="B178" s="28"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B179" s="20"/>
+        <v>272</v>
+      </c>
+      <c r="B179" s="28"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>664</v>
+        <v>273</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B181" s="21"/>
+        <v>274</v>
+      </c>
+      <c r="B181" s="29"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B182" s="21"/>
+        <v>275</v>
+      </c>
+      <c r="B182" s="29"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B183" s="21"/>
+        <v>276</v>
+      </c>
+      <c r="B183" s="29"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B184" s="21"/>
+        <v>277</v>
+      </c>
+      <c r="B184" s="29"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B185" s="21"/>
+        <v>278</v>
+      </c>
+      <c r="B185" s="29"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B186" s="21"/>
+        <v>279</v>
+      </c>
+      <c r="B186" s="29"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B187" s="21"/>
+        <v>280</v>
+      </c>
+      <c r="B187" s="29"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B188" s="21"/>
+        <v>281</v>
+      </c>
+      <c r="B188" s="29"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B189" s="21"/>
+        <v>282</v>
+      </c>
+      <c r="B189" s="29"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B190" s="21"/>
+        <v>283</v>
+      </c>
+      <c r="B190" s="29"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B191" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="B191" s="29"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B192" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="B192" s="29"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B193" s="21"/>
+        <v>286</v>
+      </c>
+      <c r="B193" s="29"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>663</v>
+        <v>287</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B195" s="24"/>
+        <v>288</v>
+      </c>
+      <c r="B195" s="32"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B196" s="24"/>
+        <v>289</v>
+      </c>
+      <c r="B196" s="32"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B197" s="24"/>
+        <v>290</v>
+      </c>
+      <c r="B197" s="32"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B198" s="24"/>
+        <v>291</v>
+      </c>
+      <c r="B198" s="32"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B199" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="B199" s="32"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B200" s="24"/>
+        <v>293</v>
+      </c>
+      <c r="B200" s="32"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B201" s="24"/>
+        <v>294</v>
+      </c>
+      <c r="B201" s="32"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B202" s="24"/>
+        <v>295</v>
+      </c>
+      <c r="B202" s="32"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B203" s="24"/>
+        <v>296</v>
+      </c>
+      <c r="B203" s="32"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B204" s="24"/>
+        <v>297</v>
+      </c>
+      <c r="B204" s="32"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B205" s="24"/>
+        <v>298</v>
+      </c>
+      <c r="B205" s="32"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B206" s="24"/>
+        <v>299</v>
+      </c>
+      <c r="B206" s="32"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B207" s="24"/>
+        <v>300</v>
+      </c>
+      <c r="B207" s="32"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B208" s="25"/>
+        <v>301</v>
+      </c>
+      <c r="B208" s="33"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>662</v>
+        <v>302</v>
+      </c>
+      <c r="B209" s="30" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B210" s="22"/>
+        <v>303</v>
+      </c>
+      <c r="B210" s="30"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B211" s="22"/>
+        <v>304</v>
+      </c>
+      <c r="B211" s="30"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B212" s="22"/>
+        <v>305</v>
+      </c>
+      <c r="B212" s="30"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B213" s="22"/>
+        <v>306</v>
+      </c>
+      <c r="B213" s="30"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B214" s="22"/>
+        <v>307</v>
+      </c>
+      <c r="B214" s="30"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B215" s="22"/>
+        <v>308</v>
+      </c>
+      <c r="B215" s="30"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B216" s="22"/>
+        <v>309</v>
+      </c>
+      <c r="B216" s="30"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B217" s="22"/>
+        <v>310</v>
+      </c>
+      <c r="B217" s="30"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B218" s="22"/>
+        <v>311</v>
+      </c>
+      <c r="B218" s="30"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B219" s="22"/>
+        <v>312</v>
+      </c>
+      <c r="B219" s="30"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B220" s="22"/>
+        <v>313</v>
+      </c>
+      <c r="B220" s="30"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B221" s="22"/>
+        <v>314</v>
+      </c>
+      <c r="B221" s="30"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B222" s="22"/>
+        <v>315</v>
+      </c>
+      <c r="B222" s="30"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B223" s="22"/>
+        <v>316</v>
+      </c>
+      <c r="B223" s="30"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B224" s="22"/>
+        <v>317</v>
+      </c>
+      <c r="B224" s="30"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B225" s="22"/>
+        <v>318</v>
+      </c>
+      <c r="B225" s="30"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B226" s="22"/>
+        <v>319</v>
+      </c>
+      <c r="B226" s="30"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B227" s="22"/>
+        <v>320</v>
+      </c>
+      <c r="B227" s="30"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B228" s="22"/>
+        <v>321</v>
+      </c>
+      <c r="B228" s="30"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B229" s="22"/>
+        <v>322</v>
+      </c>
+      <c r="B229" s="30"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B230" s="22"/>
+        <v>323</v>
+      </c>
+      <c r="B230" s="30"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B231" s="22"/>
+        <v>324</v>
+      </c>
+      <c r="B231" s="30"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B232" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="B232" s="30"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B233" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="B233" s="30"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B234" s="22"/>
+        <v>327</v>
+      </c>
+      <c r="B234" s="30"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B235" s="22"/>
+        <v>328</v>
+      </c>
+      <c r="B235" s="30"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B236" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="B236" s="30"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B237" s="22"/>
+        <v>330</v>
+      </c>
+      <c r="B237" s="30"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B238" s="22"/>
+        <v>331</v>
+      </c>
+      <c r="B238" s="30"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B239" s="23" t="s">
-        <v>661</v>
+        <v>332</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B240" s="24"/>
+        <v>333</v>
+      </c>
+      <c r="B240" s="32"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B241" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="B241" s="32"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B242" s="24"/>
+        <v>335</v>
+      </c>
+      <c r="B242" s="32"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B243" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="B243" s="32"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B244" s="24"/>
+        <v>337</v>
+      </c>
+      <c r="B244" s="32"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B245" s="24"/>
+        <v>338</v>
+      </c>
+      <c r="B245" s="32"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B246" s="24"/>
+        <v>339</v>
+      </c>
+      <c r="B246" s="32"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B247" s="24"/>
+        <v>340</v>
+      </c>
+      <c r="B247" s="32"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B248" s="24"/>
+        <v>341</v>
+      </c>
+      <c r="B248" s="32"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B249" s="24"/>
+        <v>342</v>
+      </c>
+      <c r="B249" s="32"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B250" s="24"/>
+        <v>343</v>
+      </c>
+      <c r="B250" s="32"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B251" s="24"/>
+        <v>344</v>
+      </c>
+      <c r="B251" s="32"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B252" s="24"/>
+        <v>345</v>
+      </c>
+      <c r="B252" s="32"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B253" s="24"/>
+        <v>346</v>
+      </c>
+      <c r="B253" s="32"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B254" s="24"/>
+        <v>347</v>
+      </c>
+      <c r="B254" s="32"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B255" s="24"/>
+        <v>348</v>
+      </c>
+      <c r="B255" s="32"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B256" s="24"/>
+        <v>349</v>
+      </c>
+      <c r="B256" s="32"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B257" s="24"/>
+        <v>350</v>
+      </c>
+      <c r="B257" s="32"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B258" s="24"/>
+        <v>351</v>
+      </c>
+      <c r="B258" s="32"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B259" s="24"/>
+        <v>352</v>
+      </c>
+      <c r="B259" s="32"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B260" s="24"/>
+        <v>353</v>
+      </c>
+      <c r="B260" s="32"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B261" s="24"/>
+        <v>354</v>
+      </c>
+      <c r="B261" s="32"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B262" s="24"/>
+        <v>355</v>
+      </c>
+      <c r="B262" s="32"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B263" s="25"/>
+        <v>356</v>
+      </c>
+      <c r="B263" s="33"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B264" s="22" t="s">
-        <v>660</v>
+        <v>357</v>
+      </c>
+      <c r="B264" s="30" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B265" s="22"/>
+        <v>358</v>
+      </c>
+      <c r="B265" s="30"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B266" s="22"/>
+        <v>359</v>
+      </c>
+      <c r="B266" s="30"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B267" s="22"/>
+        <v>360</v>
+      </c>
+      <c r="B267" s="30"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B268" s="22"/>
+        <v>361</v>
+      </c>
+      <c r="B268" s="30"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B269" s="22"/>
+        <v>362</v>
+      </c>
+      <c r="B269" s="30"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B270" s="22"/>
+        <v>363</v>
+      </c>
+      <c r="B270" s="30"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B271" s="22"/>
+        <v>364</v>
+      </c>
+      <c r="B271" s="30"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B272" s="22"/>
+        <v>365</v>
+      </c>
+      <c r="B272" s="30"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B273" s="22"/>
+        <v>366</v>
+      </c>
+      <c r="B273" s="30"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B274" s="22"/>
+        <v>367</v>
+      </c>
+      <c r="B274" s="30"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B275" s="22"/>
+        <v>368</v>
+      </c>
+      <c r="B275" s="30"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B276" s="22"/>
+        <v>369</v>
+      </c>
+      <c r="B276" s="30"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B277" s="22"/>
+        <v>370</v>
+      </c>
+      <c r="B277" s="30"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B278" s="22"/>
+        <v>371</v>
+      </c>
+      <c r="B278" s="30"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B279" s="22"/>
+        <v>372</v>
+      </c>
+      <c r="B279" s="30"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B280" s="22"/>
+        <v>373</v>
+      </c>
+      <c r="B280" s="30"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B281" s="22"/>
+        <v>374</v>
+      </c>
+      <c r="B281" s="30"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B282" s="22" t="s">
-        <v>658</v>
+        <v>375</v>
+      </c>
+      <c r="B282" s="30" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B283" s="22"/>
+        <v>376</v>
+      </c>
+      <c r="B283" s="30"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B284" s="22"/>
+        <v>377</v>
+      </c>
+      <c r="B284" s="30"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B285" s="22"/>
+        <v>378</v>
+      </c>
+      <c r="B285" s="30"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B286" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="B286" s="30"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B287" s="22"/>
+        <v>380</v>
+      </c>
+      <c r="B287" s="30"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B288" s="22"/>
+        <v>381</v>
+      </c>
+      <c r="B288" s="30"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B289" s="22"/>
+        <v>382</v>
+      </c>
+      <c r="B289" s="30"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B290" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="B290" s="30"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B291" s="22"/>
+        <v>384</v>
+      </c>
+      <c r="B291" s="30"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B292" s="22"/>
+        <v>385</v>
+      </c>
+      <c r="B292" s="30"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B293" s="22"/>
+        <v>386</v>
+      </c>
+      <c r="B293" s="30"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B294" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="B294" s="30"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B295" s="22"/>
+        <v>388</v>
+      </c>
+      <c r="B295" s="30"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B296" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="B296" s="30"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B297" s="22"/>
+        <v>390</v>
+      </c>
+      <c r="B297" s="30"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B298" s="22"/>
+        <v>391</v>
+      </c>
+      <c r="B298" s="30"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B299" s="22"/>
+        <v>392</v>
+      </c>
+      <c r="B299" s="30"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B300" s="23" t="s">
-        <v>659</v>
+        <v>393</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B301" s="24"/>
+        <v>394</v>
+      </c>
+      <c r="B301" s="32"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B302" s="24"/>
+        <v>395</v>
+      </c>
+      <c r="B302" s="32"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B303" s="24"/>
+        <v>396</v>
+      </c>
+      <c r="B303" s="32"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B304" s="24"/>
+        <v>397</v>
+      </c>
+      <c r="B304" s="32"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B305" s="24"/>
+        <v>398</v>
+      </c>
+      <c r="B305" s="32"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B306" s="24"/>
+        <v>399</v>
+      </c>
+      <c r="B306" s="32"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B307" s="24"/>
+        <v>400</v>
+      </c>
+      <c r="B307" s="32"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B308" s="24"/>
+        <v>401</v>
+      </c>
+      <c r="B308" s="32"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B309" s="24"/>
+        <v>402</v>
+      </c>
+      <c r="B309" s="32"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B310" s="24"/>
+        <v>403</v>
+      </c>
+      <c r="B310" s="32"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B311" s="24"/>
+        <v>404</v>
+      </c>
+      <c r="B311" s="32"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B312" s="24"/>
+        <v>405</v>
+      </c>
+      <c r="B312" s="32"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B313" s="24"/>
+        <v>406</v>
+      </c>
+      <c r="B313" s="32"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B314" s="24"/>
+        <v>407</v>
+      </c>
+      <c r="B314" s="32"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B315" s="24"/>
+        <v>408</v>
+      </c>
+      <c r="B315" s="32"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B316" s="24"/>
+        <v>409</v>
+      </c>
+      <c r="B316" s="32"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B317" s="24"/>
+        <v>410</v>
+      </c>
+      <c r="B317" s="32"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B318" s="24"/>
+        <v>411</v>
+      </c>
+      <c r="B318" s="32"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B319" s="24"/>
+        <v>412</v>
+      </c>
+      <c r="B319" s="32"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B320" s="24"/>
+        <v>413</v>
+      </c>
+      <c r="B320" s="32"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B321" s="25"/>
+        <v>414</v>
+      </c>
+      <c r="B321" s="33"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B322" s="21" t="s">
-        <v>666</v>
+        <v>415</v>
+      </c>
+      <c r="B322" s="29" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B323" s="21"/>
+        <v>416</v>
+      </c>
+      <c r="B323" s="29"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B324" s="21"/>
+        <v>417</v>
+      </c>
+      <c r="B324" s="29"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B325" s="21"/>
+        <v>418</v>
+      </c>
+      <c r="B325" s="29"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B326" s="21"/>
+        <v>419</v>
+      </c>
+      <c r="B326" s="29"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B327" s="21"/>
+        <v>420</v>
+      </c>
+      <c r="B327" s="29"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B328" s="21"/>
+        <v>421</v>
+      </c>
+      <c r="B328" s="29"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B329" s="21"/>
+        <v>422</v>
+      </c>
+      <c r="B329" s="29"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B330" s="21"/>
+        <v>423</v>
+      </c>
+      <c r="B330" s="29"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B331" s="21"/>
+        <v>424</v>
+      </c>
+      <c r="B331" s="29"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B332" s="21"/>
+        <v>425</v>
+      </c>
+      <c r="B332" s="29"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B333" s="21"/>
+        <v>426</v>
+      </c>
+      <c r="B333" s="29"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B334" s="21"/>
+        <v>427</v>
+      </c>
+      <c r="B334" s="29"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B335" s="21"/>
+        <v>428</v>
+      </c>
+      <c r="B335" s="29"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B336" s="21"/>
+        <v>429</v>
+      </c>
+      <c r="B336" s="29"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B337" s="21"/>
+        <v>430</v>
+      </c>
+      <c r="B337" s="29"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B338" s="21"/>
+        <v>431</v>
+      </c>
+      <c r="B338" s="29"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B339" s="21"/>
+        <v>432</v>
+      </c>
+      <c r="B339" s="29"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B340" s="20" t="s">
-        <v>642</v>
+        <v>433</v>
+      </c>
+      <c r="B340" s="28" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B341" s="20"/>
+        <v>434</v>
+      </c>
+      <c r="B341" s="28"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B342" s="20"/>
+        <v>435</v>
+      </c>
+      <c r="B342" s="28"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B343" s="20"/>
+        <v>436</v>
+      </c>
+      <c r="B343" s="28"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B344" s="20"/>
+        <v>437</v>
+      </c>
+      <c r="B344" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B115:B127"/>
-    <mergeCell ref="B56:B74"/>
-    <mergeCell ref="B75:B94"/>
-    <mergeCell ref="B340:B344"/>
-    <mergeCell ref="B322:B339"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B282:B299"/>
@@ -7017,10 +7011,15 @@
     <mergeCell ref="B159:B179"/>
     <mergeCell ref="B143:B158"/>
     <mergeCell ref="B128:B142"/>
+    <mergeCell ref="B115:B127"/>
+    <mergeCell ref="B56:B74"/>
+    <mergeCell ref="B75:B94"/>
+    <mergeCell ref="B340:B344"/>
+    <mergeCell ref="B322:B339"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{F6630852-B0F1-4028-AE14-9EEA49FD963C}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{1DAA003A-357A-48F6-A540-3AF13F7E79D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
